--- a/biology/Zoologie/Alopecosa/Alopecosa.xlsx
+++ b/biology/Zoologie/Alopecosa/Alopecosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alopecosa est un genre d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alopecosa est un genre d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent pour la plupart en écozone holarctique et quelques-unes en zones néotropicale, afrotropicale, océanienne, indomalaise et australasienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent pour la plupart en écozone holarctique et quelques-unes en zones néotropicale, afrotropicale, océanienne, indomalaise et australasienne.
 </t>
         </is>
       </c>
@@ -544,13 +558,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pattes antérieures du mâle
-Au sein du genre, alors que la femelle d' Alopecosa cuneata (Clerk) a des pattes antérieures d'aspect "normal" (Fig.1), le mâle se singularise toujours par un renflement tibial fusiforme qui apparaît juste avant la dernière mue (Fig. 2,3). Ce renflement présente deux dépressions obliques pro et rétrolatérales tranchant, par leur teinte claire, sur la couleur noir intense de l’article. Il s’agit là d’un caractère sexuel secondaire propre au mâle, découvert par Sundevall (1832 : " tibias anticas crassissimas ovatas "), paraissant unique  chez les Lycosidae et jouant un rôle dans l’accouplement car la femelle l’étreint au cours des préludes (Kronestedt, 1979). Sa surface présente au Microscope électronique à balayage (M.E.B) de nombreux pores cuticulaires censés émettre un sémiochimique (Fig.4)[2], retrouvés ensuite par Dahlem, Gack et Martens en 1987[3] et en relation avec un organe glandulaire sous-jacent que ces derniers n'auraient qu'entrevu dans des coupes sommaires.
-Il a donc été réalisé sur le tibia un examen histologique plus complet, d'autres photos au M.E.B et une étude ultrastructurale[4]. Il s'agissait  de la toute première recherche portant sur un caractère sexuel glandulaire d’appendice prosomatique mâle autre que le  bulbe copulateur du pédipalpe.  Le matériel  provenait de mâles d’Alopecosa cuneata, adultes et subadultes, tous récoltés dans les monts de Lacaune (nord-ouest de l’Hérault, France). Outre l'application de techniques histologiques banales, il a été préparé pour le M.E.B. et surtout, la microscopie électronique à transmission. (M.E.T.).
-Microscopie électronique à balayage
-Chaque zone claire latérotibiale se présente comme une dépression en cuvette peu profonde et presque glabre qu'entourent des poils banaux. Chez les mâles adultes,  elle renferme généralement un matériel amorphe,  granulo-filamenteux, plus ou moins craquelé et d'aspect sécrétoire. Les pores découverts par Kronestedt en 1986[2] chez d’autres spécimens (Fig.), sont bien visibles sur les bords de cette même dépression (Fig.). Ils s’y disposent sans ordre apparent, s’isolent parfois entre les bases de poils voisins et se présentent comme des orifices arrondis, réguliers(diamètre : 1,5 µm). Situés au ras du tégument (Fig.) ou, beaucoup plus souvent, sur une saillie oblongue les surélevant en position oblique (Fig), ces orifices présentent en gros la même orientation. Certains d’entre eux émettent une substance qui s’étire en filaments et se fond parfois dans le contenu de la dépression. 
-Structure histologique
-Au niveau de chaque dépression, l’épiderme est modifié en regard des pores. Il est haut de 40 à 50 µm, recouvert par une cuticule de même épaisseur et séparé d’un vaste sinus hémolymphatique sous-jacent par une basale peu visible (Fig. ).
+          <t>Pattes antérieures du mâle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein du genre, alors que la femelle d' Alopecosa cuneata (Clerk) a des pattes antérieures d'aspect "normal" (Fig.1), le mâle se singularise toujours par un renflement tibial fusiforme qui apparaît juste avant la dernière mue (Fig. 2,3). Ce renflement présente deux dépressions obliques pro et rétrolatérales tranchant, par leur teinte claire, sur la couleur noir intense de l’article. Il s’agit là d’un caractère sexuel secondaire propre au mâle, découvert par Sundevall (1832 : " tibias anticas crassissimas ovatas "), paraissant unique  chez les Lycosidae et jouant un rôle dans l’accouplement car la femelle l’étreint au cours des préludes (Kronestedt, 1979). Sa surface présente au Microscope électronique à balayage (M.E.B) de nombreux pores cuticulaires censés émettre un sémiochimique (Fig.4), retrouvés ensuite par Dahlem, Gack et Martens en 1987 et en relation avec un organe glandulaire sous-jacent que ces derniers n'auraient qu'entrevu dans des coupes sommaires.
+Il a donc été réalisé sur le tibia un examen histologique plus complet, d'autres photos au M.E.B et une étude ultrastructurale. Il s'agissait  de la toute première recherche portant sur un caractère sexuel glandulaire d’appendice prosomatique mâle autre que le  bulbe copulateur du pédipalpe.  Le matériel  provenait de mâles d’Alopecosa cuneata, adultes et subadultes, tous récoltés dans les monts de Lacaune (nord-ouest de l’Hérault, France). Outre l'application de techniques histologiques banales, il a été préparé pour le M.E.B. et surtout, la microscopie électronique à transmission. (M.E.T.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alopecosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pattes antérieures du mâle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Microscopie électronique à balayage</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque zone claire latérotibiale se présente comme une dépression en cuvette peu profonde et presque glabre qu'entourent des poils banaux. Chez les mâles adultes,  elle renferme généralement un matériel amorphe,  granulo-filamenteux, plus ou moins craquelé et d'aspect sécrétoire. Les pores découverts par Kronestedt en 1986 chez d’autres spécimens (Fig.), sont bien visibles sur les bords de cette même dépression (Fig.). Ils s’y disposent sans ordre apparent, s’isolent parfois entre les bases de poils voisins et se présentent comme des orifices arrondis, réguliers(diamètre : 1,5 µm). Situés au ras du tégument (Fig.) ou, beaucoup plus souvent, sur une saillie oblongue les surélevant en position oblique (Fig), ces orifices présentent en gros la même orientation. Certains d’entre eux émettent une substance qui s’étire en filaments et se fond parfois dans le contenu de la dépression. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alopecosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pattes antérieures du mâle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Structure histologique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau de chaque dépression, l’épiderme est modifié en regard des pores. Il est haut de 40 à 50 µm, recouvert par une cuticule de même épaisseur et séparé d’un vaste sinus hémolymphatique sous-jacent par une basale peu visible (Fig. ).
 Epithélium
 L’épithélium tégumentaire comporte 3 catégories de cellules. 
 Les plus grandes ont un aspect d’adénocytes globuleux (diamètre : 30 µm environ), à noyau arrondi (6 à 7 µm) nettement nucléolé, à cytoplasme basophile dans sa partie basale, spongieux et très éosinophile dans sa partie apicale où l’on discerne un « réservoir » à pourtour vaguement strié ainsi qu’un grêle canalicule.
@@ -562,8 +659,47 @@
 Le revêtement cuticulaire est traversé par des canalicules peu visibles, issus des adénocytes sous-jacents, très grêles, plus ou moins arqués et aboutissant juste au-dessous de la surface à une « vésicule » claire que surmonte un pore (Fig.). Chez les mâles subadultes, il ne semble pas renfermer encore de canalicules.
 Sinus sanguin
 Le sinus hémolymphatique a une ampleur inhabituelle et paraît plus responsable du renflement tibial que l’épiderme modifié. Il ne ménage qu’une place étroite pour les nerfs et les muscles, occupe presque tout le centre de l’article, renferme de petits vaisseaux qui s’y ouvrent et surtout, une quantité considérable d’hémocytes à disposition compacte. Ces cellules sont souvent granuleuses et paraissent se rattacher à 4 catégories distinctes que met surtout en évidence le bleu de toluidine.Chez les mâles subadultes, le sinus est également très développé et riche en hémocytes. 
-Ultrastructure
-Son étude est la première réalisée sur une glande prosomatique appendiculaire mâle autre que le pédipalpe. Les recherches de A.Lopez (1990) au M.E.T. ont montré que l’épiderme modifié est formé par un ensemble d’unités fonctionnelles bien individualisées, autonomes, présentant toutes la même organisation ultrastructurale, et par des cellules de soutien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alopecosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pattes antérieures du mâle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ultrastructure</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son étude est la première réalisée sur une glande prosomatique appendiculaire mâle autre que le pédipalpe. Les recherches de A.Lopez (1990) au M.E.T. ont montré que l’épiderme modifié est formé par un ensemble d’unités fonctionnelles bien individualisées, autonomes, présentant toutes la même organisation ultrastructurale, et par des cellules de soutien.
 Une lame basale très mince (30 nanomètres), continue et finement granuleuse les sépare bien du sinus et ses hémocytes. 
 Chaque unité fonctionnelle ou glandulaire se compose d’un adénocyte et d’un appareil cuticulaire s’étendant de cette cellule sécrétrice à l’un des pores de surface. Les différentes unités sont entourées par des cellules épithéliales de soutien. 
 Adénocyte
@@ -583,49 +719,90 @@
 Etendues de la lame basale à la cuticule, ces cellules épithéliales épidermiques sont  volumineuses, grossièrement prismatiques et réunies par des jonctions (desmosomes) lorsqu’elles se juxtaposent. Le pôle apical ne présente pas d’invagination de l’espace extracellulaire, est hérissé de microvilli courtes, très serrées, avec des densifications appliquées sur la cuticule (Fig.) et émet aussi quelques prolongements s’engageant dans les canaux poraires. Les faces latérales sont nettes, presque rectilignes et non engrenées.
 Le pôle basal  présente des hémidesmosomes nombreux, petits et rapprochés qui l’ancrent sur la lame sous-jacente.
 Le noyau rappelle celui des cellules canaliculaires, est assez irrégulier, pourvu d’une chromatine marginale abondante et d’un nucléole dense. Le cytoplasme renferme des ribosomes libres, un réticulum endoplasmique granulaire formé par de très nombreuses petites vésicules, des mitochondries plus grosses que celles de l’adénocyte, à crêtes serrées, un appareil de Golgi réduit, semble-t-il, à quelques dictyosomes, et des inclusions pigmentaires sphériques (Fig.). On note aussi en périphérie des faisceaux de microtubules et de microfilaments qui ont une disposition longitudinale (Fig.).
-Commentaires
-Anatomie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alopecosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pattes antérieures du mâle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anatomie
 Sur le plan anatomique, le renflement tibial des pattes I  d’Alopecosa cuneata mâle se présente comme un organe assez complexe, associant une glande épidermique exocrine et un vaste sinus sanguin qui n’a pas donné lieu à des recherches plus poussées.
 La glande et la cuticule sus-jacente peuvent être rattachées au cadre restreint des équipements sécréteurs connus dans les pattes de certaines Araignées : également dans le tarse  des mâles d’Arkys (Araneidae), Ablemma et Brignoliella (Tetrablemmidae) ; dans les fémurs et tibias des deux sexes chez les Zodariinae, Telemidae, Leptonetidae, Agelenidae (Cybaeota)
-La structure fine des unités constituant  la glande tibiale permet de les rattacher à la classe 3 des cellules glandulaires épidermiques telles que Noirot et Quennedey en 1974[5] les ont décrites chez les Insectes. 
+La structure fine des unités constituant  la glande tibiale permet de les rattacher à la classe 3 des cellules glandulaires épidermiques telles que Noirot et Quennedey en 1974 les ont décrites chez les Insectes. 
 L’adénocyte se singularise par des microvillosités souvent groupées sur des lames cytpoplasmiques non observées dans les autres glandes d’Araignées et par la richesse de son chondriome. Responsable de l’éosinophilie cytoplasmique observée en histologie, un nombre aussi élevé de mitochondries n’a guère été observé ailleurs que dans les glandes épidermiques sous-oculaires (appelées à tort « clypéales ») des Mynoglenes, mâles et femelles ( Blest &amp; Taylor, 1977). Il suggère dans l’adénocyte tibial des transferts et un métabolisme intenses pouvant être en rapport avec l’un des stades de l’activité sécrétoire.
 Le canalicule récepteur est remarquable par ses sinuosités, par l ’absence de fenestrations pariétales et par son ouverture dans l'espace extracellulaire, vraisemblablement terminale comme dans la glande labiosternale et la glande rétrogonoporale de Lepthyphantes.  Le canalicule conducteur se singularise lui aussi par des sinuosités et surtout, la dilatation ampullaire sub-terminale non rencontrée dans d’autres organes glandulaires.
 Fonction
 Sur le plan fonctionnel, l’ultrastructure particulière de la glande tibiale qui comporte un appareil terminal dans chacune de ses unités, plaide en faveur d’une sécrétion de phéromone sexuelle par analogie avec celles d’autres organes Araneidiens (glande acronale ou clypéale) ou de nombreuses glandes d’ Insectes.
 Ici plus qu’ailleurs, le rejet des sécrétats doit être  lié à la pression que l’hémolymphe exerce sur les adénocytes en s’accumulant  dans le vaste sinus. Les cellules sanguines pourraient leur avoir préalablement transmis des métabolites particuliers.
 Le matériel élaboré sort ensuite par les pores et emplit les dépressions latérales du tibia. Il renferme  probablement un sémiochimique volatile exerçant  sur la femelle, un effet d’abord attractif, lorsqu’elle s’approche du mâle, saisit ses tibias avec les chélicères lors de premiers  contacts très fugaces, et ensuite « aphrodisiaque », lorsqu’elle l’étreint plus longuement, rapprochant ses parties buccales de la sécrétion (Kronestedt, 1979).
-Il semblerait d’ailleurs que les premiers tibias d’une autre Lycoside, Xerolycosa miniata, présentent également de nombreux pores chez le mâle et soient saisis par la femelle lors de la cour[6].  
+Il semblerait d’ailleurs que les premiers tibias d’une autre Lycoside, Xerolycosa miniata, présentent également de nombreux pores chez le mâle et soient saisis par la femelle lors de la cour.  
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Alopecosa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 11/04/2024)[1] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 11/04/2024) :
 Alopecosa aculeata (Clerck, 1757)
 Alopecosa akkolka Marusik, 1995
 Alopecosa albofasciata (Brullé, 1832)
@@ -792,64 +969,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Alopecosa</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1885 dans les Lycosidae.
-Solicosa[7] a été placé en synonymie par Lugetti et Tongiorgi en 1969[8].
-Jollecosa[9] a été placé en synonymie par Dondale et Redner en 1979[10].
+Solicosa a été placé en synonymie par Lugetti et Tongiorgi en 1969.
+Jollecosa a été placé en synonymie par Dondale et Redner en 1979.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Alopecosa</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alopecosa</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Études sur les Arachnides recueillis en Tunisie en 1883 et 1884 par MM. A. Letourneux, M. Sédillot et Valéry Mayet, membres de la mission de l'Exploration scientifique de la Tunisie. » Exploration scientifique de la Tunisie, Paris, p. 1-55.</t>
         </is>
